--- a/testbench/Test Plan/TEST_PLAN_branch_comp.xlsx
+++ b/testbench/Test Plan/TEST_PLAN_branch_comp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB249E03-622B-4964-8F64-21B6FB9A0208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F00DFB-F7F5-4DBA-8713-5915EF6E1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST PLAN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="Actual">(PeriodInActual*('TEST PLAN'!#REF!&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('TEST PLAN'!#REF!&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">('TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!#REF!,'TEST PLAN'!#REF!+'TEST PLAN'!#REF!)*('TEST PLAN'!#REF!&gt;0))*(('TEST PLAN'!A$4&lt;(INT('TEST PLAN'!#REF!+'TEST PLAN'!#REF!*'TEST PLAN'!$J1)))+('TEST PLAN'!A$4='TEST PLAN'!#REF!))*('TEST PLAN'!$J1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">('TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!#REF!,'TEST PLAN'!#REF!+'TEST PLAN'!#REF!)*('TEST PLAN'!#REF!&gt;0))*(('TEST PLAN'!A$4&lt;(INT('TEST PLAN'!#REF!+'TEST PLAN'!#REF!*'TEST PLAN'!#REF!)))+('TEST PLAN'!A$4='TEST PLAN'!#REF!))*('TEST PLAN'!#REF!&gt;0)</definedName>
     <definedName name="period_selected">'TEST PLAN'!#REF!</definedName>
     <definedName name="PeriodInActual">'TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!#REF!,'TEST PLAN'!#REF!+'TEST PLAN'!#REF!-1)</definedName>
     <definedName name="PeriodInPlan">'TEST PLAN'!A$4=MEDIAN('TEST PLAN'!A$4,'TEST PLAN'!$C1,'TEST PLAN'!$C1+'TEST PLAN'!$D1-1)</definedName>
@@ -43,18 +43,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>INPUT (1)</t>
-  </si>
-  <si>
-    <t>INPUT(2)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="51">
   <si>
     <t xml:space="preserve">      STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          EXPECTED OUTPUT (1)</t>
   </si>
   <si>
     <t>SUCSSESS</t>
@@ -63,13 +54,7 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>TEST STATUS</t>
-  </si>
-  <si>
     <t>NOT TESTED</t>
-  </si>
-  <si>
-    <t>XXX TEST PLAN</t>
   </si>
   <si>
     <r>
@@ -91,29 +76,146 @@
     <t>COMMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">                 INPUT(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 INPUT(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              INPUT(5)</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
-    <t xml:space="preserve">       EXPECTED OUTPUT (2)</t>
+    <t>BRANCH_COMP TEST PLAN</t>
   </si>
   <si>
-    <t xml:space="preserve">                 EXPECTED OUTPUT (3)</t>
+    <t>i_branch_cond</t>
+  </si>
+  <si>
+    <t>i_rs1data</t>
+  </si>
+  <si>
+    <t>i_rs2data</t>
+  </si>
+  <si>
+    <t>o_taken</t>
+  </si>
+  <si>
+    <t>3'b000</t>
+  </si>
+  <si>
+    <t>3'b001</t>
+  </si>
+  <si>
+    <t>3'b100</t>
+  </si>
+  <si>
+    <t>3'b101</t>
+  </si>
+  <si>
+    <t>3'b110</t>
+  </si>
+  <si>
+    <t>3'b111</t>
+  </si>
+  <si>
+    <t>'sd3060</t>
+  </si>
+  <si>
+    <t>'sd2965</t>
+  </si>
+  <si>
+    <t>1'b0</t>
+  </si>
+  <si>
+    <t>'sd2044</t>
+  </si>
+  <si>
+    <t>1'b1</t>
+  </si>
+  <si>
+    <t>'sd1505</t>
+  </si>
+  <si>
+    <t>-'sd1505</t>
+  </si>
+  <si>
+    <t>TESTING BEQ</t>
+  </si>
+  <si>
+    <t>rs1 &gt; rs2</t>
+  </si>
+  <si>
+    <t>rs1 = rs2</t>
+  </si>
+  <si>
+    <t>rs1 (+ve) &gt; rs2 (-ve)</t>
+  </si>
+  <si>
+    <t>TESTING BNE</t>
+  </si>
+  <si>
+    <t>TESTING BLT</t>
+  </si>
+  <si>
+    <t>TESTING BGE</t>
+  </si>
+  <si>
+    <t>TESTING BLTU</t>
+  </si>
+  <si>
+    <t>TESTING BGEU</t>
+  </si>
+  <si>
+    <t>-'sd3060</t>
+  </si>
+  <si>
+    <t>-'sd2965</t>
+  </si>
+  <si>
+    <t>two positive numbers</t>
+  </si>
+  <si>
+    <t>two negative numbers</t>
+  </si>
+  <si>
+    <t>one positive one negative</t>
+  </si>
+  <si>
+    <t>one negative one posivite</t>
+  </si>
+  <si>
+    <t>two equal numbers</t>
+  </si>
+  <si>
+    <t>not equal numbers</t>
+  </si>
+  <si>
+    <t>-'sd4124</t>
+  </si>
+  <si>
+    <t>'sd5688</t>
+  </si>
+  <si>
+    <t>'sd12457</t>
+  </si>
+  <si>
+    <t>-'sd12457</t>
+  </si>
+  <si>
+    <t>'sd306</t>
+  </si>
+  <si>
+    <t>'sd296</t>
+  </si>
+  <si>
+    <t>'sd4124</t>
+  </si>
+  <si>
+    <t>-'sd5688</t>
+  </si>
+  <si>
+    <t>sd5688</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -143,17 +245,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="7"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -304,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -512,19 +603,218 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -533,44 +823,44 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,7 +870,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -589,13 +879,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="3" applyBorder="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,53 +906,47 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -670,20 +954,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -691,58 +963,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="12" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +1102,35 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="137">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -782,10 +1145,75 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -902,12 +1330,1675 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1164,144 +3255,125 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BR34"/>
+  <dimension ref="A1:BN64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="11.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="51" customWidth="1"/>
-    <col min="11" max="14" width="2.77734375" style="1"/>
-    <col min="15" max="15" width="2.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="2.77734375" style="1"/>
-    <col min="19" max="19" width="20" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.77734375" style="1"/>
-    <col min="21" max="21" width="3.6640625" style="1" customWidth="1"/>
-    <col min="22" max="26" width="2.77734375" style="1"/>
-    <col min="27" max="27" width="11.5546875" style="1" customWidth="1"/>
-    <col min="28" max="30" width="2.77734375" style="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="2.77734375" style="1"/>
+    <col min="11" max="11" width="2.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="2.77734375" style="1"/>
+    <col min="15" max="15" width="27.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.77734375" style="1"/>
+    <col min="17" max="17" width="3.6640625" style="1" customWidth="1"/>
+    <col min="18" max="22" width="2.77734375" style="1"/>
+    <col min="23" max="23" width="11.5546875" style="1" customWidth="1"/>
+    <col min="24" max="26" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="10"/>
-      <c r="AD1"/>
-    </row>
-    <row r="2" spans="1:70" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="17"/>
+      <c r="H1" s="10"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:66" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="50" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+    </row>
+    <row r="3" spans="1:66" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="35" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="35" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-    </row>
-    <row r="3" spans="1:70" s="5" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="29" t="s">
-        <v>9</v>
-      </c>
+      <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="30" t="s">
-        <v>10</v>
-      </c>
+      <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
@@ -1309,23 +3381,19 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-    </row>
-    <row r="4" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="22"/>
+    </row>
+    <row r="4" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -1336,10 +3404,10 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -1381,551 +3449,1450 @@
       <c r="BL4" s="3"/>
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-    </row>
-    <row r="5" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53">
+    </row>
+    <row r="5" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-    </row>
-    <row r="6" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53">
+    </row>
+    <row r="6" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="58"/>
+      <c r="G6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="42"/>
+      <c r="O6" s="41"/>
+    </row>
+    <row r="7" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="AH7" s="7"/>
-    </row>
-    <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53">
+      <c r="B7" s="23"/>
+      <c r="C7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="L7" s="42"/>
+      <c r="O7" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="58"/>
+      <c r="G8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="L8" s="42"/>
+      <c r="O8" s="43"/>
+    </row>
+    <row r="9" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59">
         <v>3</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53">
+      <c r="B9" s="23"/>
+      <c r="C9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="L9" s="42"/>
+      <c r="O9" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="42"/>
+      <c r="O10" s="43"/>
+    </row>
+    <row r="11" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52">
         <v>4</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="L11" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="57"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="58"/>
+      <c r="G12"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="L12" s="42"/>
+      <c r="O12" s="41"/>
+    </row>
+    <row r="13" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="59">
         <v>5</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53">
+      <c r="B13" s="23"/>
+      <c r="C13" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="L13" s="42"/>
+      <c r="O13" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="57"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="58"/>
+      <c r="G14"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="L14" s="42"/>
+      <c r="O14" s="43"/>
+    </row>
+    <row r="15" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59">
         <v>6</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53">
+      <c r="B15" s="23"/>
+      <c r="C15" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="L15" s="42"/>
+      <c r="O15" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="L16" s="42"/>
+      <c r="O16" s="43"/>
+    </row>
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="52">
         <v>7</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53">
+      <c r="B17" s="53"/>
+      <c r="C17" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="L17" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="57"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="58"/>
+      <c r="G18"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="L18" s="42"/>
+      <c r="O18" s="41"/>
+    </row>
+    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="59">
         <v>8</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53">
+      <c r="B19" s="23"/>
+      <c r="C19" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="L19" s="42"/>
+      <c r="O19" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="57"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="58"/>
+      <c r="G20"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="L20" s="42"/>
+      <c r="O20" s="43"/>
+    </row>
+    <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59">
         <v>9</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53">
+      <c r="B21" s="23"/>
+      <c r="C21" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="L21" s="42"/>
+      <c r="O21" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="57"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="58"/>
+      <c r="G22"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="L22" s="42"/>
+      <c r="O22" s="41"/>
+    </row>
+    <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="59">
         <v>10</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53">
+      <c r="B23" s="23"/>
+      <c r="C23" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="L23" s="42"/>
+      <c r="O23" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="57"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="58"/>
+      <c r="G24"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="L24" s="42"/>
+      <c r="O24" s="43"/>
+    </row>
+    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59">
         <v>11</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53">
+      <c r="B25" s="23"/>
+      <c r="C25" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="L25" s="42"/>
+      <c r="O25" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="57"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="58"/>
+      <c r="G26"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="L26" s="42"/>
+      <c r="O26" s="41"/>
+    </row>
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59">
         <v>12</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53">
+      <c r="B27" s="23"/>
+      <c r="C27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="L27" s="42"/>
+      <c r="O27" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="L28" s="42"/>
+      <c r="O28" s="43"/>
+    </row>
+    <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="52">
+        <v>10</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="L29" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="57"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="58"/>
+      <c r="G30"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="L30" s="42"/>
+      <c r="O30" s="41"/>
+    </row>
+    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="59">
+        <v>11</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="L31" s="42"/>
+      <c r="O31" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="57"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="58"/>
+      <c r="G32"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="L32" s="42"/>
+      <c r="O32" s="43"/>
+    </row>
+    <row r="33" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="59">
+        <v>12</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="L33" s="42"/>
+      <c r="O33" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="57"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="58"/>
+      <c r="G34"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="L34" s="42"/>
+      <c r="O34" s="41"/>
+    </row>
+    <row r="35" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="59">
         <v>13</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53">
+      <c r="B35" s="23"/>
+      <c r="C35" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="57"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="58"/>
+      <c r="G36"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="L36" s="42"/>
+      <c r="O36" s="43"/>
+    </row>
+    <row r="37" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="59">
         <v>14</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53">
+      <c r="B37" s="23"/>
+      <c r="C37" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="D37" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="L37" s="42"/>
+      <c r="O37" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="57"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="58"/>
+      <c r="G38"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="L38" s="42"/>
+      <c r="O38" s="41"/>
+    </row>
+    <row r="39" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="59">
+        <v>15</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="L39" s="42"/>
+      <c r="O39" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="72"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="71"/>
+      <c r="G40"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="L40" s="42"/>
+      <c r="O40" s="43"/>
+    </row>
+    <row r="41" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="52">
+        <v>16</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="L41" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="57"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="58"/>
+      <c r="G42"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="L42" s="42"/>
+      <c r="O42" s="41"/>
+    </row>
+    <row r="43" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="59">
+        <v>17</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="L43" s="42"/>
+      <c r="O43" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="57"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="58"/>
+      <c r="G44"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="L44" s="42"/>
+      <c r="O44" s="43"/>
+    </row>
+    <row r="45" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="59">
+        <v>18</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="L45" s="42"/>
+      <c r="O45" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="57"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="58"/>
+      <c r="G46"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="L46" s="42"/>
+      <c r="O46" s="41"/>
+    </row>
+    <row r="47" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="70">
+        <v>16</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="C47" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="57"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="58"/>
+      <c r="G48"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="L48" s="42"/>
+      <c r="O48" s="43"/>
+    </row>
+    <row r="49" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="59">
+        <v>17</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="L49" s="42"/>
+      <c r="O49" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="57"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="58"/>
+      <c r="G50"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="L50" s="42"/>
+      <c r="O50" s="41"/>
+    </row>
+    <row r="51" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="59">
+        <v>18</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="L51" s="42"/>
+      <c r="O51" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="61"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="65"/>
+      <c r="G52"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="L52" s="42"/>
+      <c r="O52" s="43"/>
+    </row>
+    <row r="53" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="52">
+        <v>16</v>
+      </c>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="L53" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="57"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="58"/>
+      <c r="G54"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="L54" s="42"/>
+      <c r="O54" s="41"/>
+    </row>
+    <row r="55" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="59">
+        <v>17</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="L55" s="42"/>
+      <c r="O55" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="57"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="58"/>
+      <c r="G56"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="L56" s="42"/>
+      <c r="O56" s="43"/>
+    </row>
+    <row r="57" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="59">
+        <v>18</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="L57" s="42"/>
+      <c r="O57" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="57"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="58"/>
+      <c r="G58"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="L58" s="42"/>
+      <c r="O58" s="41"/>
+    </row>
+    <row r="59" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="70">
+        <v>16</v>
+      </c>
+      <c r="B59" s="51"/>
+      <c r="C59" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="57"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="58"/>
+      <c r="G60"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="L60" s="42"/>
+      <c r="O60" s="43"/>
+    </row>
+    <row r="61" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="59">
+        <v>17</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="L61" s="42"/>
+      <c r="O61" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="57"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="58"/>
+      <c r="G62"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="L62" s="42"/>
+      <c r="O62" s="41"/>
+    </row>
+    <row r="63" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="59">
+        <v>18</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="L63" s="42"/>
+      <c r="O63" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="61"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="65"/>
+      <c r="G64"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="L64" s="42"/>
+      <c r="O64" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+  <mergeCells count="226">
+    <mergeCell ref="L53:L64"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="L29:L40"/>
+    <mergeCell ref="L41:L52"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="L17:L28"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A13:B13"/>
@@ -1933,64 +4900,445 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AK2:AR2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AC2:AI2"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33">
-    <cfRule type="duplicateValues" dxfId="10" priority="47"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15 A17 A19 A21 A29 A31 A33 A35 A37 A39">
+    <cfRule type="duplicateValues" dxfId="136" priority="175"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:BR35">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>TRUE</formula>
+  <conditionalFormatting sqref="K5:BN5 M7:BN7 M6:N6 P6:BN6 M9:BN9 M8:N8 P8:BN8 M10:N10 L11:O11 M13:O13 M12:N12 M15:O15 M14:N14 M16:N16 L17:O17 M19:O19 M18:N18 M20:N28 M30:N34 M36:N40 P10:BN46 O21 O23 L29:O29 O31 O33 M35:O35 M42:N46 M48:N52 L41:O41 O43 O45 M47:O47 G5:G64 K6:K64">
+    <cfRule type="expression" dxfId="135" priority="130">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="132">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="133">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="134">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="135">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="136">
+      <formula>G$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="140">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="141">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K34 O5:BR34">
-    <cfRule type="expression" dxfId="8" priority="2">
+  <conditionalFormatting sqref="G4:BN4">
+    <cfRule type="expression" dxfId="127" priority="137">
+      <formula>G$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41 A43 A45">
+    <cfRule type="duplicateValues" dxfId="126" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="125" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="124" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="123" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25 O27">
+    <cfRule type="expression" dxfId="122" priority="117">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="121" priority="118">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="120" priority="119">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="119" priority="120">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="118" priority="121">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>K$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="117" priority="122">
+      <formula>O$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="123">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="115" priority="124">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:BR4">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>K$4=period_selected</formula>
+  <conditionalFormatting sqref="A47 A49 A51">
+    <cfRule type="duplicateValues" dxfId="114" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53 A55 A57">
+    <cfRule type="duplicateValues" dxfId="113" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59 A61 A63">
+    <cfRule type="duplicateValues" dxfId="112" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37 O39">
+    <cfRule type="expression" dxfId="111" priority="105">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="106">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="107">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="108">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="109">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="110">
+      <formula>O$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="111">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="112">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O49 O51">
+    <cfRule type="expression" dxfId="103" priority="97">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="98">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="99">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="100">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="101">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="102">
+      <formula>O$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="103">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="104">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M54:N58 M60:N64 L53:O53 O55 O57 M59:O59">
+    <cfRule type="expression" dxfId="95" priority="89">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="90">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="91">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="92">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="93">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="94">
+      <formula>L$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="95">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="96">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O61 O63">
+    <cfRule type="expression" dxfId="87" priority="81">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="82">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="83">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="84">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="85">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="86">
+      <formula>O$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="87">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="88">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P47:BM48">
+    <cfRule type="expression" dxfId="79" priority="73">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="74">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="75">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="76">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="77">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="78">
+      <formula>P$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="79">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="80">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P49:BM50">
+    <cfRule type="expression" dxfId="71" priority="65">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="66">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="67">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="68">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="69">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="70">
+      <formula>P$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="71">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="72">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P51:BM52">
+    <cfRule type="expression" dxfId="63" priority="57">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="58">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="59">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="60">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="61">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="62">
+      <formula>P$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P53:BM54">
+    <cfRule type="expression" dxfId="55" priority="49">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="50">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="51">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="53">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="54">
+      <formula>P$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="55">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="56">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P55:BM57">
+    <cfRule type="expression" dxfId="47" priority="41">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="42">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="43">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="44">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="45">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="46">
+      <formula>P$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="47">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="48">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P58:BM59">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="35">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="38">
+      <formula>P$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="39">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P60:BM60">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>P$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P61:BM63">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>P$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P64:BM64">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>P$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" xWindow="1098" yWindow="431" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AJ2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AF2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2019,6 +5367,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E7F311F653CF44E95AC47A60A52DC95" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0451a830a853a7f200515a3d5ff39cb6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cdca2500-fabf-4293-ac73-9005bff1562e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3edac0ffe3dc3f9835ffad51fa159b8" ns3:_="">
     <xsd:import namespace="cdca2500-fabf-4293-ac73-9005bff1562e"/>
@@ -2208,22 +5571,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AED3A77-15DE-4DB5-BA42-62C8EB6487B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cdca2500-fabf-4293-ac73-9005bff1562e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3512C65A-A41B-4CD4-AFC9-ECD723732A55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3388B11-EEA3-44E5-B34F-44C0C667C4B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2239,28 +5611,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3512C65A-A41B-4CD4-AFC9-ECD723732A55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AED3A77-15DE-4DB5-BA42-62C8EB6487B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cdca2500-fabf-4293-ac73-9005bff1562e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>